--- a/encodingMemoryPerformance4Cols.xlsx
+++ b/encodingMemoryPerformance4Cols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAE2A5-0D9D-4C65-81B7-C349B3CCD110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE12148B-F502-45B6-A7C6-3AFCC3E39B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3195" windowWidth="13950" windowHeight="11385" activeTab="3" xr2:uid="{E2FA24CF-C369-49AD-BE7B-B49F5C6DD37D}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{E2FA24CF-C369-49AD-BE7B-B49F5C6DD37D}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -121,6 +121,6330 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encoding memory performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>684.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9FD-484D-958D-078394E47157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIT_PACKING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>468.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>553.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>590.32000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9FD-484D-958D-078394E47157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>226.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>247.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>885.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9FD-484D-958D-078394E47157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROARING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>197.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>224.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>526.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1611.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B9FD-484D-958D-078394E47157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP_REDUCE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3814.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B9FD-484D-958D-078394E47157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PARQUET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B9FD-484D-958D-078394E47157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HYBRID_COLUMNAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1610.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B9FD-484D-958D-078394E47157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="539408240"/>
+        <c:axId val="539411520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="539408240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>column</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539411520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539411520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size in memory (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539408240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encoding memory performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFD8-4FA4-903E-5314BA5DA12F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIT_PACKING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>546.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>474.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>506.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>590.33000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFD8-4FA4-903E-5314BA5DA12F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>225.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>233.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>578.19000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CFD8-4FA4-903E-5314BA5DA12F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROARING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>195.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>353.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1123.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CFD8-4FA4-903E-5314BA5DA12F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP_REDUCE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3814.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CFD8-4FA4-903E-5314BA5DA12F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PARQUET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CFD8-4FA4-903E-5314BA5DA12F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HYBRID_COLUMNAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1123.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CFD8-4FA4-903E-5314BA5DA12F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="271757248"/>
+        <c:axId val="271757904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="271757248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>column</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="271757904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="271757904"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size in memory (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="271757248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encoding memory performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12A6-4525-99A7-001D0824DEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIT_PACKING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>221.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>486.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>563.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-12A6-4525-99A7-001D0824DEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>228.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-12A6-4525-99A7-001D0824DEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROARING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>186.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>666.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-12A6-4525-99A7-001D0824DEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP_REDUCE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3814.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-12A6-4525-99A7-001D0824DEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PARQUET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-12A6-4525-99A7-001D0824DEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HYBRID_COLUMNAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-12A6-4525-99A7-001D0824DEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="547737136"/>
+        <c:axId val="547740744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="547737136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>column</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547740744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547740744"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size in memory (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547737136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encoding memory performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD86-4057-9CEF-516370BAA25A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIT_PACKING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>221.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>489.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>566.17999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD86-4057-9CEF-516370BAA25A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>227.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AD86-4057-9CEF-516370BAA25A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROARING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>188.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>701.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AD86-4057-9CEF-516370BAA25A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP_REDUCE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3814.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3814.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AD86-4057-9CEF-516370BAA25A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PARQUET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AD86-4057-9CEF-516370BAA25A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HYBRID_COLUMNAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AD86-4057-9CEF-516370BAA25A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="547726640"/>
+        <c:axId val="547726968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="547726640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>column</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547726968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547726968"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size in memory (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547726640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E260777-684E-4183-9C28-1D1A7680366C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74FF47AF-FE42-42FD-A4FD-9E056A235BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14729721-A9D9-44B0-8B6B-FA84206C9435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007E1DD3-6067-47F0-836D-3E1EC35C56AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +6747,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,9 +6848,15 @@
       <c r="B6">
         <v>3814.75</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>3814.7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3814.7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3814.7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -564,6 +6894,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -572,7 +6903,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +7001,15 @@
       <c r="B6">
         <v>3814.75</v>
       </c>
+      <c r="C6">
+        <v>3814.7</v>
+      </c>
+      <c r="D6">
+        <v>3814.7</v>
+      </c>
+      <c r="E6">
+        <v>3814.7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -707,6 +7047,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -715,7 +7056,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,6 +7154,15 @@
       <c r="B6">
         <v>3814.75</v>
       </c>
+      <c r="C6">
+        <v>3814.7</v>
+      </c>
+      <c r="D6">
+        <v>3814.7</v>
+      </c>
+      <c r="E6">
+        <v>3814.7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -850,6 +7200,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -858,7 +7209,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,6 +7307,15 @@
       <c r="B6">
         <v>3814.75</v>
       </c>
+      <c r="C6">
+        <v>3814.7</v>
+      </c>
+      <c r="D6">
+        <v>3814.7</v>
+      </c>
+      <c r="E6">
+        <v>3814.7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -993,5 +7353,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/encodingMemoryPerformance4Cols.xlsx
+++ b/encodingMemoryPerformance4Cols.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE12148B-F502-45B6-A7C6-3AFCC3E39B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431DA260-1929-48C4-B3AE-0C1B88B04763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{E2FA24CF-C369-49AD-BE7B-B49F5C6DD37D}"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{E2FA24CF-C369-49AD-BE7B-B49F5C6DD37D}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
     <sheet name="normal" sheetId="2" r:id="rId2"/>
     <sheet name="exponential 1" sheetId="3" r:id="rId3"/>
     <sheet name="exponential 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Φύλλο1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
   <si>
     <t>RLE</t>
   </si>
@@ -160,6 +161,19 @@
               <a:rPr lang="en-US"/>
               <a:t>Encoding memory performance</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t> [</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>uniform</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1155,7 +1169,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding memory performance</a:t>
+              <a:t>Encoding memory performance [normal]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2152,7 +2166,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding memory performance</a:t>
+              <a:t>Encoding memory performance [exponential 1]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3149,7 +3163,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding memory performance</a:t>
+              <a:t>Encoding memory performance [exponential</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4111,6 +4133,1762 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>684.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4065-44E0-9852-12F711F86118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1068.3800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4065-44E0-9852-12F711F86118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="616732264"/>
+        <c:axId val="616730952"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>BIT_PACKING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$4:$E$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>468.22</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>477.15</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>553.70000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>590.32000000000005</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>BIT_PACKING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$5:$E$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>468.22</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>952.89</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1771.93</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1964.59</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DELTA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$6:$E$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>226.38</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>247.36</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>331.79</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>885.92</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DELTA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$7:$E$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>226.38</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>243.97</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>263.54000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>263.54000000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ROARING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$8:$E$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>197.11</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>224.4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>526.97</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1611.01</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ROARING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$9:$E$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>197.11</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>264.45999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>929.72</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6743.01</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MAP_REDUCE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$10:$E$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>3814.75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3814.7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3814.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3814.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MAP_REDUCE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$11:$E$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>3814.75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3814.75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3814.75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3814.75</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PARQUET</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$12:$E$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>16.75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18.34</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>35.229999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>203.77</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PARQUET</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$13:$E$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>16.75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18.57</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>38.06</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>206.78</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>HYBRID_COLUMNAR</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$14:$E$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>2.0299999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>69.599999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1610.83</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>HYBRID_COLUMNAR</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>first col</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>second col</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>third col</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fourth col</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Φύλλο1!$B$15:$E$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>2.0299999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>105.29</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>263.54000000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-4065-44E0-9852-12F711F86118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="616732264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616730952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="616730952"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616732264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4271,6 +6049,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5781,6 +7599,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6427,6 +8748,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007E1DD3-6067-47F0-836D-3E1EC35C56AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2BF728-158B-4D30-BB52-065EB9B3420B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6747,7 +9109,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6903,7 +9265,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7056,7 +9418,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7209,7 +9571,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7355,4 +9717,279 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574BE422-53A0-4872-9F90-B22C852E5898}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E2" s="1">
+        <v>684.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C3">
+        <v>11.8</v>
+      </c>
+      <c r="D3">
+        <v>105.29</v>
+      </c>
+      <c r="E3">
+        <v>1068.3800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>468.22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>477.15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>553.70000000000005</v>
+      </c>
+      <c r="E4" s="1">
+        <v>590.32000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>468.22</v>
+      </c>
+      <c r="C5">
+        <v>952.89</v>
+      </c>
+      <c r="D5">
+        <v>1771.93</v>
+      </c>
+      <c r="E5">
+        <v>1964.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>226.38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>247.36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>331.79</v>
+      </c>
+      <c r="E6" s="1">
+        <v>885.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>226.38</v>
+      </c>
+      <c r="C7">
+        <v>243.97</v>
+      </c>
+      <c r="D7">
+        <v>263.54000000000002</v>
+      </c>
+      <c r="E7">
+        <v>263.54000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>197.11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>224.4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>526.97</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1611.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>197.11</v>
+      </c>
+      <c r="C9">
+        <v>264.45999999999998</v>
+      </c>
+      <c r="D9">
+        <v>929.72</v>
+      </c>
+      <c r="E9">
+        <v>6743.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>3814.75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3814.7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3814.7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3814.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3814.75</v>
+      </c>
+      <c r="C11">
+        <v>3814.75</v>
+      </c>
+      <c r="D11">
+        <v>3814.75</v>
+      </c>
+      <c r="E11">
+        <v>3814.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>16.75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18.34</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="E12" s="1">
+        <v>203.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>16.75</v>
+      </c>
+      <c r="C13">
+        <v>18.57</v>
+      </c>
+      <c r="D13">
+        <v>38.06</v>
+      </c>
+      <c r="E13">
+        <v>206.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1610.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C15">
+        <v>11.8</v>
+      </c>
+      <c r="D15">
+        <v>105.29</v>
+      </c>
+      <c r="E15">
+        <v>263.54000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/encodingMemoryPerformance4Cols.xlsx
+++ b/encodingMemoryPerformance4Cols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431DA260-1929-48C4-B3AE-0C1B88B04763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8F3261-20EF-4AAF-BCE4-E48080D60E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{E2FA24CF-C369-49AD-BE7B-B49F5C6DD37D}"/>
+    <workbookView minimized="1" xWindow="1725" yWindow="1725" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{E2FA24CF-C369-49AD-BE7B-B49F5C6DD37D}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Φύλλο1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -283,10 +284,10 @@
                   <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.599999999999994</c:v>
+                  <c:v>69.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>684.62</c:v>
+                  <c:v>684.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,13 +367,13 @@
                   <c:v>468.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>477.15</c:v>
+                  <c:v>477.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>553.70000000000005</c:v>
+                  <c:v>553.91999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>590.32000000000005</c:v>
+                  <c:v>590.33000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,13 +453,13 @@
                   <c:v>226.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>247.36</c:v>
+                  <c:v>247.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>331.79</c:v>
+                  <c:v>331.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>885.92</c:v>
+                  <c:v>886.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,13 +539,13 @@
                   <c:v>197.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224.4</c:v>
+                  <c:v>224.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>526.97</c:v>
+                  <c:v>527.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1611.01</c:v>
+                  <c:v>1611.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,8 +621,8 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>3814.75</c:v>
+                <c:pt idx="0">
+                  <c:v>3814.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3814.7</c:v>
@@ -710,13 +711,13 @@
                   <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.34</c:v>
+                  <c:v>18.350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.229999999999997</c:v>
+                  <c:v>35.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>203.77</c:v>
+                  <c:v>203.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,10 +806,10 @@
                   <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.599999999999994</c:v>
+                  <c:v>69.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1610.83</c:v>
+                  <c:v>1611.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,13 +1278,13 @@
                   <c:v>1.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.76</c:v>
+                  <c:v>4.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.95</c:v>
+                  <c:v>19.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>406.15</c:v>
+                  <c:v>72.180000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,13 +1364,13 @@
                   <c:v>546.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>474.23</c:v>
+                  <c:v>575.16999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>506.98</c:v>
+                  <c:v>580.69000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>590.33000000000004</c:v>
+                  <c:v>586.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,13 +1450,13 @@
                   <c:v>225.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>233.99</c:v>
+                  <c:v>234.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>262.19</c:v>
+                  <c:v>254.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>578.19000000000005</c:v>
+                  <c:v>302.77999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,13 +1536,13 @@
                   <c:v>195.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.81</c:v>
+                  <c:v>205.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>353.83</c:v>
+                  <c:v>241.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1123.44</c:v>
+                  <c:v>332.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,8 +1618,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3814.75</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>3814.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3814.7</c:v>
@@ -1707,13 +1708,13 @@
                   <c:v>16.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.66</c:v>
+                  <c:v>17.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.72</c:v>
+                  <c:v>20.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.58</c:v>
+                  <c:v>33.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,13 +1800,13 @@
                   <c:v>1.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.76</c:v>
+                  <c:v>4.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.95</c:v>
+                  <c:v>19.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1123.44</c:v>
+                  <c:v>72.180000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,13 +2275,13 @@
                   <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.79</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.78</c:v>
+                  <c:v>6.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217.87</c:v>
+                  <c:v>12.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,13 +2361,13 @@
                   <c:v>221.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>470.68</c:v>
+                  <c:v>229.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>486.24</c:v>
+                  <c:v>232.28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>563.85</c:v>
+                  <c:v>236.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,13 +2447,13 @@
                   <c:v>228.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231.09</c:v>
+                  <c:v>232.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248.05</c:v>
+                  <c:v>242.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>406.27</c:v>
+                  <c:v>245.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,13 +2533,13 @@
                   <c:v>186.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.67</c:v>
+                  <c:v>190.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270.72000000000003</c:v>
+                  <c:v>195.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>666.74</c:v>
+                  <c:v>202.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2614,8 +2615,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3814.75</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>3814.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3814.7</c:v>
@@ -2704,13 +2705,13 @@
                   <c:v>16.579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.14</c:v>
+                  <c:v>16.809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.37</c:v>
+                  <c:v>17.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.900000000000006</c:v>
+                  <c:v>18.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,13 +2797,13 @@
                   <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.79</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.78</c:v>
+                  <c:v>6.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217.87</c:v>
+                  <c:v>12.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3279,13 +3280,13 @@
                   <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.12</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.15</c:v>
+                  <c:v>6.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.22</c:v>
+                  <c:v>12.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,13 +3366,13 @@
                   <c:v>221.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>470.59</c:v>
+                  <c:v>229.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>489.6</c:v>
+                  <c:v>232.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>566.17999999999995</c:v>
+                  <c:v>236.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3451,13 +3452,13 @@
                   <c:v>227.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231.46</c:v>
+                  <c:v>232.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>255.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>370.69</c:v>
+                  <c:v>246.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3537,13 +3538,13 @@
                   <c:v>188.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.79</c:v>
+                  <c:v>190.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>280.38</c:v>
+                  <c:v>195.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>701.89</c:v>
+                  <c:v>202.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,8 +3620,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3814.75</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>3814.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3814.7</c:v>
@@ -3709,13 +3710,13 @@
                   <c:v>16.579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.309999999999999</c:v>
+                  <c:v>16.809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.23</c:v>
+                  <c:v>17.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.87</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3801,13 +3802,13 @@
                   <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.12</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.15</c:v>
+                  <c:v>6.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.22</c:v>
+                  <c:v>12.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4481,7 +4482,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$5</c15:sqref>
@@ -4522,7 +4523,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -4548,7 +4549,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$5:$E$5</c15:sqref>
@@ -4574,7 +4575,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -4587,7 +4588,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$6</c15:sqref>
@@ -4628,7 +4629,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -4654,7 +4655,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$6:$E$6</c15:sqref>
@@ -4680,7 +4681,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -4693,7 +4694,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$7</c15:sqref>
@@ -4734,7 +4735,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -4760,7 +4761,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$7:$E$7</c15:sqref>
@@ -4786,7 +4787,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -4799,7 +4800,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$8</c15:sqref>
@@ -4846,7 +4847,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -4872,7 +4873,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$8:$E$8</c15:sqref>
@@ -4898,7 +4899,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -4911,7 +4912,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$9</c15:sqref>
@@ -4958,7 +4959,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -4984,7 +4985,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$9:$E$9</c15:sqref>
@@ -5010,7 +5011,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -5023,7 +5024,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$10</c15:sqref>
@@ -5070,7 +5071,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -5096,7 +5097,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$10:$E$10</c15:sqref>
@@ -5122,7 +5123,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -5135,7 +5136,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$11</c15:sqref>
@@ -5182,7 +5183,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -5208,7 +5209,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$11:$E$11</c15:sqref>
@@ -5234,7 +5235,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -5247,7 +5248,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$12</c15:sqref>
@@ -5294,7 +5295,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -5320,7 +5321,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$12:$E$12</c15:sqref>
@@ -5346,7 +5347,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -5359,7 +5360,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$13</c15:sqref>
@@ -5406,7 +5407,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -5432,7 +5433,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$13:$E$13</c15:sqref>
@@ -5458,7 +5459,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -5471,7 +5472,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$14</c15:sqref>
@@ -5521,7 +5522,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -5547,7 +5548,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$14:$E$14</c15:sqref>
@@ -5573,7 +5574,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -5586,7 +5587,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$A$15</c15:sqref>
@@ -5636,7 +5637,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$1:$E$1</c15:sqref>
@@ -5662,7 +5663,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Φύλλο1!$B$15:$E$15</c15:sqref>
@@ -5688,7 +5689,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-4065-44E0-9852-12F711F86118}"/>
                   </c:ext>
@@ -9109,7 +9110,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9146,10 +9147,10 @@
         <v>8.1</v>
       </c>
       <c r="D2" s="1">
-        <v>69.599999999999994</v>
+        <v>69.63</v>
       </c>
       <c r="E2" s="1">
-        <v>684.62</v>
+        <v>684.86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9160,13 +9161,13 @@
         <v>468.22</v>
       </c>
       <c r="C3" s="1">
-        <v>477.15</v>
+        <v>477.11</v>
       </c>
       <c r="D3" s="1">
-        <v>553.70000000000005</v>
+        <v>553.91999999999996</v>
       </c>
       <c r="E3" s="1">
-        <v>590.32000000000005</v>
+        <v>590.33000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9177,13 +9178,13 @@
         <v>226.38</v>
       </c>
       <c r="C4" s="1">
-        <v>247.36</v>
+        <v>247.12</v>
       </c>
       <c r="D4" s="1">
-        <v>331.79</v>
+        <v>331.58</v>
       </c>
       <c r="E4" s="1">
-        <v>885.92</v>
+        <v>886.13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9194,21 +9195,21 @@
         <v>197.11</v>
       </c>
       <c r="C5" s="1">
-        <v>224.4</v>
+        <v>224.32</v>
       </c>
       <c r="D5" s="1">
-        <v>526.97</v>
+        <v>527.02</v>
       </c>
       <c r="E5" s="1">
-        <v>1611.01</v>
+        <v>1611.48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>3814.75</v>
+      <c r="B6" s="1">
+        <v>3814.7</v>
       </c>
       <c r="C6" s="1">
         <v>3814.7</v>
@@ -9228,13 +9229,13 @@
         <v>16.75</v>
       </c>
       <c r="C7" s="1">
-        <v>18.34</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>35.229999999999997</v>
+        <v>35.24</v>
       </c>
       <c r="E7" s="1">
-        <v>203.77</v>
+        <v>203.91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9248,10 +9249,10 @@
         <v>8.1</v>
       </c>
       <c r="D8" s="1">
-        <v>69.599999999999994</v>
+        <v>69.63</v>
       </c>
       <c r="E8" s="1">
-        <v>1610.83</v>
+        <v>1611.48</v>
       </c>
     </row>
   </sheetData>
@@ -9265,7 +9266,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9296,13 +9297,13 @@
         <v>1.87</v>
       </c>
       <c r="C2">
-        <v>6.76</v>
+        <v>4.84</v>
       </c>
       <c r="D2">
-        <v>44.95</v>
+        <v>19.53</v>
       </c>
       <c r="E2">
-        <v>406.15</v>
+        <v>72.180000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9313,13 +9314,13 @@
         <v>546.22</v>
       </c>
       <c r="C3">
-        <v>474.23</v>
+        <v>575.16999999999996</v>
       </c>
       <c r="D3">
-        <v>506.98</v>
+        <v>580.69000000000005</v>
       </c>
       <c r="E3">
-        <v>590.33000000000004</v>
+        <v>586.79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9330,13 +9331,13 @@
         <v>225.56</v>
       </c>
       <c r="C4">
-        <v>233.99</v>
+        <v>234.51</v>
       </c>
       <c r="D4">
-        <v>262.19</v>
+        <v>254.73</v>
       </c>
       <c r="E4">
-        <v>578.19000000000005</v>
+        <v>302.77999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9347,21 +9348,21 @@
         <v>195.93</v>
       </c>
       <c r="C5">
-        <v>213.81</v>
+        <v>205.88</v>
       </c>
       <c r="D5">
-        <v>353.83</v>
+        <v>241.7</v>
       </c>
       <c r="E5">
-        <v>1123.44</v>
+        <v>332.43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>3814.75</v>
+      <c r="B6" s="1">
+        <v>3814.7</v>
       </c>
       <c r="C6">
         <v>3814.7</v>
@@ -9381,13 +9382,13 @@
         <v>16.63</v>
       </c>
       <c r="C7">
-        <v>17.66</v>
+        <v>17.28</v>
       </c>
       <c r="D7">
-        <v>26.72</v>
+        <v>20.6</v>
       </c>
       <c r="E7">
-        <v>102.58</v>
+        <v>33.94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9398,13 +9399,13 @@
         <v>1.87</v>
       </c>
       <c r="C8">
-        <v>6.76</v>
+        <v>4.84</v>
       </c>
       <c r="D8">
-        <v>44.95</v>
+        <v>19.53</v>
       </c>
       <c r="E8">
-        <v>1123.44</v>
+        <v>72.180000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -9418,7 +9419,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9449,13 +9450,13 @@
         <v>1.69</v>
       </c>
       <c r="C2">
-        <v>4.79</v>
+        <v>2.99</v>
       </c>
       <c r="D2">
-        <v>28.78</v>
+        <v>6.15</v>
       </c>
       <c r="E2">
-        <v>217.87</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9466,13 +9467,13 @@
         <v>221.13</v>
       </c>
       <c r="C3">
-        <v>470.68</v>
+        <v>229.2</v>
       </c>
       <c r="D3">
-        <v>486.24</v>
+        <v>232.28</v>
       </c>
       <c r="E3">
-        <v>563.85</v>
+        <v>236.73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9483,13 +9484,13 @@
         <v>228.11</v>
       </c>
       <c r="C4">
-        <v>231.09</v>
+        <v>232.34</v>
       </c>
       <c r="D4">
-        <v>248.05</v>
+        <v>242.22</v>
       </c>
       <c r="E4">
-        <v>406.27</v>
+        <v>245.45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9500,21 +9501,21 @@
         <v>186.59</v>
       </c>
       <c r="C5">
-        <v>204.67</v>
+        <v>190.19</v>
       </c>
       <c r="D5">
-        <v>270.72000000000003</v>
+        <v>195.76</v>
       </c>
       <c r="E5">
-        <v>666.74</v>
+        <v>202.46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>3814.75</v>
+      <c r="B6" s="1">
+        <v>3814.7</v>
       </c>
       <c r="C6">
         <v>3814.7</v>
@@ -9534,13 +9535,13 @@
         <v>16.579999999999998</v>
       </c>
       <c r="C7">
-        <v>17.14</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="D7">
-        <v>22.37</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="E7">
-        <v>65.900000000000006</v>
+        <v>18.71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9551,13 +9552,13 @@
         <v>1.69</v>
       </c>
       <c r="C8">
-        <v>4.79</v>
+        <v>2.99</v>
       </c>
       <c r="D8">
-        <v>28.78</v>
+        <v>6.15</v>
       </c>
       <c r="E8">
-        <v>217.87</v>
+        <v>12.51</v>
       </c>
     </row>
   </sheetData>
@@ -9571,7 +9572,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9602,13 +9603,13 @@
         <v>1.71</v>
       </c>
       <c r="C2">
-        <v>5.12</v>
+        <v>3.01</v>
       </c>
       <c r="D2">
-        <v>29.15</v>
+        <v>6.22</v>
       </c>
       <c r="E2">
-        <v>235.22</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9619,13 +9620,13 @@
         <v>221.11</v>
       </c>
       <c r="C3">
-        <v>470.59</v>
+        <v>229.28</v>
       </c>
       <c r="D3">
-        <v>489.6</v>
+        <v>232.15</v>
       </c>
       <c r="E3">
-        <v>566.17999999999995</v>
+        <v>236.9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9636,13 +9637,13 @@
         <v>227.09</v>
       </c>
       <c r="C4">
-        <v>231.46</v>
+        <v>232.92</v>
       </c>
       <c r="D4">
         <v>255.78</v>
       </c>
       <c r="E4">
-        <v>370.69</v>
+        <v>246.39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9653,21 +9654,21 @@
         <v>188.38</v>
       </c>
       <c r="C5">
-        <v>204.79</v>
+        <v>190.53</v>
       </c>
       <c r="D5">
-        <v>280.38</v>
+        <v>195.47</v>
       </c>
       <c r="E5">
-        <v>701.89</v>
+        <v>202.93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>3814.75</v>
+      <c r="B6" s="1">
+        <v>3814.7</v>
       </c>
       <c r="C6">
         <v>3814.7</v>
@@ -9687,13 +9688,13 @@
         <v>16.579999999999998</v>
       </c>
       <c r="C7">
-        <v>17.309999999999999</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="D7">
-        <v>23.23</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="E7">
-        <v>72.87</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9704,13 +9705,13 @@
         <v>1.71</v>
       </c>
       <c r="C8">
-        <v>5.12</v>
+        <v>3.01</v>
       </c>
       <c r="D8">
-        <v>29.15</v>
+        <v>6.22</v>
       </c>
       <c r="E8">
-        <v>235.22</v>
+        <v>12.69</v>
       </c>
     </row>
   </sheetData>
